--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\15-Sept-2023batch\opencart\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD60-ACC2-4D41-9A18-B0F87EEF7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="17589" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="16356" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -69,20 +63,23 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>123@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +109,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -156,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,7 +173,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -234,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -480,28 +484,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.23046875" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="3" width="18.15234375" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,18 +516,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="21">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,10 +535,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -542,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -556,26 +560,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
